--- a/Danh sách nhiệm vụ.xlsx
+++ b/Danh sách nhiệm vụ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -40,79 +40,112 @@
     <t>Mô tả /Diễn giải</t>
   </si>
   <si>
+    <t>Determine main suppliers - Evaluate, compare, determine and provide a list of potential suppliers</t>
+  </si>
+  <si>
+    <t>Thường xuyên</t>
+  </si>
+  <si>
+    <t>Team Leader BD</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Contact and negotiate favored suppliers</t>
+  </si>
+  <si>
+    <t>Market Model/Research</t>
+  </si>
+  <si>
+    <t>Lead generation: collect information of potential customer</t>
+  </si>
+  <si>
+    <t>Business Concept plan</t>
+  </si>
+  <si>
+    <t>Design publications: Catalogue (for full line and for each product item (Qty &gt;=2), Price List, Brochure, Product presentation, others for printing</t>
+  </si>
+  <si>
+    <t>Design ideas to be reviewed will be presented on the Canva platform Catalogue for full line (8 pages content + design, Ai, Ps file) 4 MD Catalogue for each item (8 pages content + design, Ai, Ps file) 4*2 MD Pricelist (doc, ppt) 1 MD Brochure (4 pages content + design, Ai, Ps file) 3 MD Product presentation (10 page content + design, Ppt file) 1 MD</t>
+  </si>
+  <si>
+    <t>Import and export regulations</t>
+  </si>
+  <si>
+    <t>For each target market: import and export procedures, import and export taxes, government incentives or trade barriers</t>
+  </si>
+  <si>
+    <t>Logistics Solutions</t>
+  </si>
+  <si>
+    <t>Logistics infrastructure, shipping units, transportation costs</t>
+  </si>
+  <si>
+    <t>Chuẩn bị tài liệu hợp tác</t>
+  </si>
+  <si>
+    <t>Hồ sơ chào bán năng lực nhà máy, Hợp đồng hợp tác, hình thức chuyển giao công nghệ</t>
+  </si>
+  <si>
+    <t>Xây dựng lead gen tiềm năng</t>
+  </si>
+  <si>
+    <t>Phân tích thị trường sản phẩm mục tiêu, Xây dựng lead gen, Đánh giá, xếp hạng các công ty tìm được</t>
+  </si>
+  <si>
+    <t>Ký thỏa thuận với đối tác thuê gia công/hợp tác sản xuất phân phối</t>
+  </si>
+  <si>
+    <t>Điều phối thực hiện nghĩa vụ hợp đồng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm bên cung cấp homologation cho xe nội khu Nhật, Hàn, Trung</t>
+  </si>
+  <si>
     <t>Find potential international suppliers</t>
   </si>
   <si>
-    <t>Thường xuyên</t>
-  </si>
-  <si>
-    <t>Team Leader BD</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Determine main suppliers - Evaluate, compare, determine and provide a list of potential suppliers</t>
-  </si>
-  <si>
-    <t>Contact and negotiate favored suppliers</t>
-  </si>
-  <si>
-    <t>Market Model/Research</t>
-  </si>
-  <si>
-    <t>Lead generation: collect information of potential customer</t>
-  </si>
-  <si>
-    <t>Business Concept plan</t>
-  </si>
-  <si>
-    <t>Design publications: Catalogue (for full line and for each product item (Qty &gt;=2), Price List, Brochure, Product presentation, others for printing</t>
-  </si>
-  <si>
-    <t>Design ideas to be reviewed will be presented on the Canva platform Catalogue for full line (8 pages content + design, Ai, Ps file) 4 MD Catalogue for each item (8 pages content + design, Ai, Ps file) 4*2 MD Pricelist (doc, ppt) 1 MD Brochure (4 pages content + design, Ai, Ps file) 3 MD Product presentation (10 page content + design, Ppt file) 1 MD</t>
-  </si>
-  <si>
-    <t>Import and export regulations</t>
-  </si>
-  <si>
-    <t>For each target market: import and export procedures, import and export taxes, government incentives or trade barriers</t>
-  </si>
-  <si>
-    <t>Logistics Solutions</t>
-  </si>
-  <si>
-    <t>Logistics infrastructure, shipping units, transportation costs</t>
-  </si>
-  <si>
-    <t>Chuẩn bị tài liệu hợp tác</t>
-  </si>
-  <si>
-    <t>Hồ sơ chào bán năng lực nhà máy, Hợp đồng hợp tác, hình thức chuyển giao công nghệ</t>
-  </si>
-  <si>
-    <t>Xây dựng lead gen tiềm năng</t>
-  </si>
-  <si>
-    <t>Phân tích thị trường sản phẩm mục tiêu, Xây dựng lead gen, Đánh giá, xếp hạng các công ty tìm được</t>
-  </si>
-  <si>
-    <t>Ký thỏa thuận với đối tác thuê gia công/hợp tác sản xuất phân phối</t>
-  </si>
-  <si>
-    <t>Điều phối thực hiện nghĩa vụ hợp đồng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm bên cung cấp homologation cho xe nội khu Nhật, Hàn, Trung</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>1 supplier = 1 point</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ kế toán</t>
+  </si>
+  <si>
+    <t>Kế toán trưởng</t>
   </si>
   <si>
     <t>Nhân viên IT</t>
   </si>
   <si>
-    <t>CNCK</t>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>NV kế toán</t>
+  </si>
+  <si>
+    <t>Nhân viên kế toán</t>
+  </si>
+  <si>
+    <t>tương đương</t>
+  </si>
+  <si>
+    <t>Test Kế toán</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Nhân viên BD</t>
+  </si>
+  <si>
+    <t>LĐPT</t>
+  </si>
+  <si>
+    <t>1 báo cáo tương ứng 4</t>
   </si>
 </sst>
 </file>
@@ -494,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
@@ -543,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -563,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -583,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -603,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -623,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -643,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -652,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,10 +693,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -672,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -692,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -712,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -720,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -732,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,10 +773,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -752,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -763,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -783,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -803,13 +836,19 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
+      </c>
+      <c r="G15">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -820,28 +859,103 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
